--- a/cobranca.xlsx
+++ b/cobranca.xlsx
@@ -25,7 +25,7 @@
     <t>Telefone</t>
   </si>
   <si>
-    <t>Telefone Celular</t>
+    <t>codigo de barras</t>
   </si>
 </sst>
 </file>
@@ -69,10 +69,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +381,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -404,6 +405,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -467,5 +469,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cobranca.xlsx
+++ b/cobranca.xlsx
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,6 +42,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,11 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +390,15 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -420,6 +432,7 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
